--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Ctf1-Lifr.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Ctf1-Lifr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -83,12 +89,6 @@
   </si>
   <si>
     <t>Lifr</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.43831541962134</v>
+        <v>0.1451516666666667</v>
       </c>
       <c r="H2">
-        <v>1.43831541962134</v>
+        <v>0.435455</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.06735911672630873</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.06735911672630872</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.965187833089</v>
+        <v>26.31197333333334</v>
       </c>
       <c r="N2">
-        <v>16.965187833089</v>
+        <v>78.93592000000001</v>
       </c>
       <c r="O2">
-        <v>0.1667851205293457</v>
+        <v>0.2261559208386891</v>
       </c>
       <c r="P2">
-        <v>0.1667851205293457</v>
+        <v>0.2261559208386891</v>
       </c>
       <c r="Q2">
-        <v>24.40129125710425</v>
+        <v>3.819226782622223</v>
       </c>
       <c r="R2">
-        <v>24.40129125710425</v>
+        <v>34.3730410436</v>
       </c>
       <c r="S2">
-        <v>0.1667851205293457</v>
+        <v>0.0152336630701191</v>
       </c>
       <c r="T2">
-        <v>0.1667851205293457</v>
+        <v>0.01523366307011909</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.43831541962134</v>
+        <v>0.1451516666666667</v>
       </c>
       <c r="H3">
-        <v>1.43831541962134</v>
+        <v>0.435455</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.06735911672630873</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.06735911672630872</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>52.8295799177661</v>
+        <v>53.74150833333334</v>
       </c>
       <c r="N3">
-        <v>52.8295799177661</v>
+        <v>161.224525</v>
       </c>
       <c r="O3">
-        <v>0.5193687179174006</v>
+        <v>0.461917475759518</v>
       </c>
       <c r="P3">
-        <v>0.5193687179174006</v>
+        <v>0.461917475759518</v>
       </c>
       <c r="Q3">
-        <v>75.98559940784085</v>
+        <v>7.800669503763888</v>
       </c>
       <c r="R3">
-        <v>75.98559940784085</v>
+        <v>70.20602553387499</v>
       </c>
       <c r="S3">
-        <v>0.5193687179174006</v>
+        <v>0.03111435316760726</v>
       </c>
       <c r="T3">
-        <v>0.5193687179174006</v>
+        <v>0.03111435316760725</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -658,49 +658,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.43831541962134</v>
+        <v>0.1451516666666667</v>
       </c>
       <c r="H4">
-        <v>1.43831541962134</v>
+        <v>0.435455</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.06735911672630873</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.06735911672630872</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.8471428774534</v>
+        <v>21.978693</v>
       </c>
       <c r="N4">
-        <v>17.8471428774534</v>
+        <v>65.93607899999999</v>
       </c>
       <c r="O4">
-        <v>0.1754556392305228</v>
+        <v>0.1889106336220259</v>
       </c>
       <c r="P4">
-        <v>0.1754556392305228</v>
+        <v>0.1889106336220259</v>
       </c>
       <c r="Q4">
-        <v>25.6698207968264</v>
+        <v>3.190243920104999</v>
       </c>
       <c r="R4">
-        <v>25.6698207968264</v>
+        <v>28.712195280945</v>
       </c>
       <c r="S4">
-        <v>0.1754556392305228</v>
+        <v>0.01272485342098699</v>
       </c>
       <c r="T4">
-        <v>0.1754556392305228</v>
+        <v>0.01272485342098698</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,557 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.1451516666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.435455</v>
+      </c>
+      <c r="I5">
+        <v>0.06735911672630873</v>
+      </c>
+      <c r="J5">
+        <v>0.06735911672630872</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>14.31221833333333</v>
+      </c>
+      <c r="N5">
+        <v>42.936655</v>
+      </c>
+      <c r="O5">
+        <v>0.123015969779767</v>
+      </c>
+      <c r="P5">
+        <v>0.123015969779767</v>
+      </c>
+      <c r="Q5">
+        <v>2.077442344780555</v>
+      </c>
+      <c r="R5">
+        <v>18.696981103025</v>
+      </c>
+      <c r="S5">
+        <v>0.008286247067595393</v>
+      </c>
+      <c r="T5">
+        <v>0.008286247067595389</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.3560033333333333</v>
+      </c>
+      <c r="H6">
+        <v>1.06801</v>
+      </c>
+      <c r="I6">
+        <v>0.1652069909746472</v>
+      </c>
+      <c r="J6">
+        <v>0.1652069909746472</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>26.31197333333334</v>
+      </c>
+      <c r="N6">
+        <v>78.93592000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.2261559208386891</v>
+      </c>
+      <c r="P6">
+        <v>0.2261559208386891</v>
+      </c>
+      <c r="Q6">
+        <v>9.367150213244445</v>
+      </c>
+      <c r="R6">
+        <v>84.3043519192</v>
+      </c>
+      <c r="S6">
+        <v>0.03736253917286034</v>
+      </c>
+      <c r="T6">
+        <v>0.03736253917286033</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.3560033333333333</v>
+      </c>
+      <c r="H7">
+        <v>1.06801</v>
+      </c>
+      <c r="I7">
+        <v>0.1652069909746472</v>
+      </c>
+      <c r="J7">
+        <v>0.1652069909746472</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>53.74150833333334</v>
+      </c>
+      <c r="N7">
+        <v>161.224525</v>
+      </c>
+      <c r="O7">
+        <v>0.461917475759518</v>
+      </c>
+      <c r="P7">
+        <v>0.461917475759518</v>
+      </c>
+      <c r="Q7">
+        <v>19.13215610502778</v>
+      </c>
+      <c r="R7">
+        <v>172.18940494525</v>
+      </c>
+      <c r="S7">
+        <v>0.0763119962488345</v>
+      </c>
+      <c r="T7">
+        <v>0.07631199624883449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.3560033333333333</v>
+      </c>
+      <c r="H8">
+        <v>1.06801</v>
+      </c>
+      <c r="I8">
+        <v>0.1652069909746472</v>
+      </c>
+      <c r="J8">
+        <v>0.1652069909746472</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>21.978693</v>
+      </c>
+      <c r="N8">
+        <v>65.93607899999999</v>
+      </c>
+      <c r="O8">
+        <v>0.1889106336220259</v>
+      </c>
+      <c r="P8">
+        <v>0.1889106336220259</v>
+      </c>
+      <c r="Q8">
+        <v>7.824487970309997</v>
+      </c>
+      <c r="R8">
+        <v>70.42039173278998</v>
+      </c>
+      <c r="S8">
+        <v>0.03120935734380892</v>
+      </c>
+      <c r="T8">
+        <v>0.03120935734380892</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.3560033333333333</v>
+      </c>
+      <c r="H9">
+        <v>1.06801</v>
+      </c>
+      <c r="I9">
+        <v>0.1652069909746472</v>
+      </c>
+      <c r="J9">
+        <v>0.1652069909746472</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>14.31221833333333</v>
+      </c>
+      <c r="N9">
+        <v>42.936655</v>
+      </c>
+      <c r="O9">
+        <v>0.123015969779767</v>
+      </c>
+      <c r="P9">
+        <v>0.123015969779767</v>
+      </c>
+      <c r="Q9">
+        <v>5.09519743406111</v>
+      </c>
+      <c r="R9">
+        <v>45.85677690655</v>
+      </c>
+      <c r="S9">
+        <v>0.02032309820914343</v>
+      </c>
+      <c r="T9">
+        <v>0.02032309820914343</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>20</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1.43831541962134</v>
-      </c>
-      <c r="H5">
-        <v>1.43831541962134</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>14.076922438122</v>
-      </c>
-      <c r="N5">
-        <v>14.076922438122</v>
-      </c>
-      <c r="O5">
-        <v>0.138390522322731</v>
-      </c>
-      <c r="P5">
-        <v>0.138390522322731</v>
-      </c>
-      <c r="Q5">
-        <v>20.2470546035645</v>
-      </c>
-      <c r="R5">
-        <v>20.2470546035645</v>
-      </c>
-      <c r="S5">
-        <v>0.138390522322731</v>
-      </c>
-      <c r="T5">
-        <v>0.138390522322731</v>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.653737666666666</v>
+      </c>
+      <c r="H10">
+        <v>4.961212999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.7674338922990441</v>
+      </c>
+      <c r="J10">
+        <v>0.767433892299044</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>26.31197333333334</v>
+      </c>
+      <c r="N10">
+        <v>78.93592000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.2261559208386891</v>
+      </c>
+      <c r="P10">
+        <v>0.2261559208386891</v>
+      </c>
+      <c r="Q10">
+        <v>43.51310138566222</v>
+      </c>
+      <c r="R10">
+        <v>391.61791247096</v>
+      </c>
+      <c r="S10">
+        <v>0.1735597185957097</v>
+      </c>
+      <c r="T10">
+        <v>0.1735597185957096</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.653737666666666</v>
+      </c>
+      <c r="H11">
+        <v>4.961212999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.7674338922990441</v>
+      </c>
+      <c r="J11">
+        <v>0.767433892299044</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>53.74150833333334</v>
+      </c>
+      <c r="N11">
+        <v>161.224525</v>
+      </c>
+      <c r="O11">
+        <v>0.461917475759518</v>
+      </c>
+      <c r="P11">
+        <v>0.461917475759518</v>
+      </c>
+      <c r="Q11">
+        <v>88.87435659431388</v>
+      </c>
+      <c r="R11">
+        <v>799.8692093488248</v>
+      </c>
+      <c r="S11">
+        <v>0.3544911263430763</v>
+      </c>
+      <c r="T11">
+        <v>0.3544911263430762</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.653737666666666</v>
+      </c>
+      <c r="H12">
+        <v>4.961212999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.7674338922990441</v>
+      </c>
+      <c r="J12">
+        <v>0.767433892299044</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>21.978693</v>
+      </c>
+      <c r="N12">
+        <v>65.93607899999999</v>
+      </c>
+      <c r="O12">
+        <v>0.1889106336220259</v>
+      </c>
+      <c r="P12">
+        <v>0.1889106336220259</v>
+      </c>
+      <c r="Q12">
+        <v>36.34699247820298</v>
+      </c>
+      <c r="R12">
+        <v>327.1229323038269</v>
+      </c>
+      <c r="S12">
+        <v>0.14497642285723</v>
+      </c>
+      <c r="T12">
+        <v>0.14497642285723</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.653737666666666</v>
+      </c>
+      <c r="H13">
+        <v>4.961212999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.7674338922990441</v>
+      </c>
+      <c r="J13">
+        <v>0.767433892299044</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>14.31221833333333</v>
+      </c>
+      <c r="N13">
+        <v>42.936655</v>
+      </c>
+      <c r="O13">
+        <v>0.123015969779767</v>
+      </c>
+      <c r="P13">
+        <v>0.123015969779767</v>
+      </c>
+      <c r="Q13">
+        <v>23.66865455139055</v>
+      </c>
+      <c r="R13">
+        <v>213.017890962515</v>
+      </c>
+      <c r="S13">
+        <v>0.09440662450302817</v>
+      </c>
+      <c r="T13">
+        <v>0.09440662450302814</v>
       </c>
     </row>
   </sheetData>
